--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1014259.378357579</v>
+        <v>1056268.100328333</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.2040797168</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6659450.199197417</v>
+        <v>7170182.503358608</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +664,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>175.4695839430115</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>272.845760387081</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +822,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,10 +870,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>90.06571353858811</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -902,10 +904,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>144.3131755296569</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>158.4573142730623</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1063,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481245</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>335.8915546016281</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1142,16 +1144,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1193,7 +1195,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>134.7319601782372</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1300,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>10.88184771372322</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1385,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>175.4475408461118</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>27.97358346682203</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>184.5211102742411</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>344.9014115296835</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1780,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>50.38971918733615</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1844,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1859,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>152.5168019860612</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,10 +2298,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>166.3197703738366</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.24876144511806</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45.76594660771036</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2776,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2950,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>26.70160847752183</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2968,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>104.6990987647609</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,10 +3015,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3196,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170566</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>137.5563529521254</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3427,19 +3429,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>120.1472970361153</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3487,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>179.5076719485545</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3563,7 +3565,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3676,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>155.202295525155</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>4.062438313348741</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3803,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>407.6810791510289</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3907,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>111.5098183264948</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>163.6395778340019</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3989,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>131.3957105685726</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>325.6875051601876</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436913</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1415.517618276922</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C2" t="n">
-        <v>977.3751454603453</v>
+        <v>542.8723677058731</v>
       </c>
       <c r="D2" t="n">
-        <v>800.1331414775053</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E2" t="n">
-        <v>366.3583966358005</v>
+        <v>77.22824207901678</v>
       </c>
       <c r="F2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
@@ -4346,34 +4348,34 @@
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>1831.517644636552</v>
       </c>
       <c r="W2" t="n">
-        <v>2265.205371842461</v>
+        <v>1830.70259408799</v>
       </c>
       <c r="X2" t="n">
-        <v>1846.062908421772</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y2" t="n">
-        <v>1841.81718876183</v>
+        <v>1407.314411007358</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4403,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>877.921435116708</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>705.359723599933</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>705.359723599933</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>535.6017198506702</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8946658124264</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4498,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4513,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1069.740053835695</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1270.561784452093</v>
+        <v>2078.642592532902</v>
       </c>
       <c r="C5" t="n">
-        <v>832.4193116355168</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D5" t="n">
-        <v>396.5095268099613</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E5" t="n">
-        <v>366.7751860086605</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F5" t="n">
         <v>342.9481604582723</v>
@@ -4559,34 +4561,34 @@
         <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>1375.081325612185</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>2035.921380153963</v>
+        <v>632.7278666362199</v>
       </c>
       <c r="O5" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4604,13 +4606,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>2524.289942058037</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>2105.147478637348</v>
+        <v>2509.187882677752</v>
       </c>
       <c r="Y5" t="n">
-        <v>1696.861354937001</v>
+        <v>2504.942163017809</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4640,34 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
         <v>1716.640978007438</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>922.1364226482442</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>749.5747111314691</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D7" t="n">
-        <v>583.6967183329918</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E7" t="n">
-        <v>413.9387145837291</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F7" t="n">
-        <v>237.2316605454853</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>71.64038557131298</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4747,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2424.181380009883</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>2145.748379262989</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1858.792871133419</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1586.766466719711</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1341.374712053123</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>1113.955041367231</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>978.7890572316417</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>944.6869884554691</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>912.8176076703177</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>77.22824207901678</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L8" t="n">
-        <v>1348.380717347871</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M8" t="n">
-        <v>1348.380717347871</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N8" t="n">
-        <v>1348.380717347871</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O8" t="n">
-        <v>2009.22077188965</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="P8" t="n">
         <v>2670.060826431428</v>
@@ -4832,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.186649932281</v>
+        <v>2107.119422805321</v>
       </c>
       <c r="V8" t="n">
-        <v>1964.569699866108</v>
+        <v>1744.502472739147</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.476810797181</v>
+        <v>1339.647018150181</v>
       </c>
       <c r="X8" t="n">
-        <v>1409.334347376492</v>
+        <v>920.5045547294914</v>
       </c>
       <c r="Y8" t="n">
-        <v>1001.048223676145</v>
+        <v>512.2184310291448</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4877,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K9" t="n">
-        <v>938.6281453713194</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L9" t="n">
-        <v>938.6281453713194</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713194</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1043.799427915185</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>871.2377163984103</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>705.359723599933</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>535.6017198506702</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>358.8946658124264</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2545.844385276825</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2267.41138452993</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1980.45587640036</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1708.429471986652</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1463.037717320064</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1235.618046634173</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1619.705114763052</v>
+        <v>2230.862362770219</v>
       </c>
       <c r="C11" t="n">
-        <v>1619.705114763052</v>
+        <v>1792.719889953642</v>
       </c>
       <c r="D11" t="n">
-        <v>1608.713349395655</v>
+        <v>1356.810105128087</v>
       </c>
       <c r="E11" t="n">
-        <v>1174.93860455395</v>
+        <v>923.035360286382</v>
       </c>
       <c r="F11" t="n">
-        <v>747.0711749631575</v>
+        <v>495.1679306955898</v>
       </c>
       <c r="G11" t="n">
-        <v>345.6733435864214</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H11" t="n">
-        <v>56.54318902963762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L11" t="n">
-        <v>1185.945282862319</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M11" t="n">
-        <v>1185.945282862319</v>
+        <v>1207.785655143938</v>
       </c>
       <c r="N11" t="n">
-        <v>1185.945282862319</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4511.285227714287</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4252.062925031303</v>
       </c>
       <c r="V11" t="n">
-        <v>2443.703032772708</v>
+        <v>3889.44597496513</v>
       </c>
       <c r="W11" t="n">
-        <v>2038.847578183741</v>
+        <v>3484.590520376163</v>
       </c>
       <c r="X11" t="n">
-        <v>1619.705114763052</v>
+        <v>3065.448056955473</v>
       </c>
       <c r="Y11" t="n">
-        <v>1619.705114763052</v>
+        <v>2657.161933255127</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M12" t="n">
-        <v>750.6905954094008</v>
+        <v>1254.175078389668</v>
       </c>
       <c r="N12" t="n">
-        <v>1445.254791162024</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="O12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="P12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1135.184560268659</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C13" t="n">
-        <v>962.6228487518839</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>796.7448559534066</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E13" t="n">
-        <v>626.9868522041439</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F13" t="n">
-        <v>450.2797981659001</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G13" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2672.786009559577</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2426.906563138033</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>2358.796516883403</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V13" t="n">
-        <v>2071.841008753834</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W13" t="n">
-        <v>1799.814604340125</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.422849673538</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.003178987646</v>
+        <v>1201.084404846717</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2380.020412353974</v>
+        <v>2118.594685950267</v>
       </c>
       <c r="C14" t="n">
-        <v>1941.877939537397</v>
+        <v>1680.45221313369</v>
       </c>
       <c r="D14" t="n">
-        <v>1505.968154711842</v>
+        <v>1244.542428308135</v>
       </c>
       <c r="E14" t="n">
-        <v>1072.193409870137</v>
+        <v>810.7676834664296</v>
       </c>
       <c r="F14" t="n">
-        <v>644.3259802793445</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="G14" t="n">
-        <v>242.9281489026084</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>56.54318902963762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>424.1063803693477</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862319</v>
+        <v>1258.456672327526</v>
       </c>
       <c r="L14" t="n">
-        <v>1880.509478614942</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M14" t="n">
-        <v>1880.509478614942</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N14" t="n">
-        <v>1880.509478614942</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O14" t="n">
-        <v>2259.821196880287</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P14" t="n">
-        <v>2259.821196880287</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V14" t="n">
-        <v>2806.319982838882</v>
+        <v>3777.178298145177</v>
       </c>
       <c r="W14" t="n">
-        <v>2806.319982838882</v>
+        <v>3372.322843556211</v>
       </c>
       <c r="X14" t="n">
-        <v>2806.319982838882</v>
+        <v>2953.180380135521</v>
       </c>
       <c r="Y14" t="n">
-        <v>2806.319982838882</v>
+        <v>2544.894256435175</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677763</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>380.68472462299</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>380.68472462299</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>380.68472462299</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>484.0630267508877</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>484.0630267508877</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>484.0630267508877</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1178.627222503511</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>906.6224367337088</v>
+        <v>911.6065991886352</v>
       </c>
       <c r="C16" t="n">
-        <v>734.0607252169337</v>
+        <v>911.6065991886352</v>
       </c>
       <c r="D16" t="n">
-        <v>568.1827324184565</v>
+        <v>745.7286063901579</v>
       </c>
       <c r="E16" t="n">
-        <v>398.4247286691938</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="F16" t="n">
-        <v>221.71767463095</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677763</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2654.546840516893</v>
+        <v>2659.531002971819</v>
       </c>
       <c r="T16" t="n">
-        <v>2408.667394095348</v>
+        <v>2413.651556550274</v>
       </c>
       <c r="U16" t="n">
-        <v>2130.234393348453</v>
+        <v>2135.218555803379</v>
       </c>
       <c r="V16" t="n">
-        <v>1843.278885218884</v>
+        <v>1848.26304767381</v>
       </c>
       <c r="W16" t="n">
-        <v>1571.252480805175</v>
+        <v>1576.236643260102</v>
       </c>
       <c r="X16" t="n">
-        <v>1325.860726138588</v>
+        <v>1330.844888593514</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.441055452696</v>
+        <v>1103.425217907622</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5494,19 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5519,10 +5521,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5589,13 +5591,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1162.814665109382</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5762,22 +5764,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V22" t="n">
-        <v>2013.948813008508</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T25" t="n">
-        <v>2538.261260176947</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U25" t="n">
-        <v>2259.828259430053</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.872751300483</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W25" t="n">
-        <v>1700.846346886775</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X25" t="n">
-        <v>1455.454592220187</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y25" t="n">
-        <v>1228.034921534295</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1454.96690046523</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1227.547229779338</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3429.850174425755</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>3402.878852731288</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>3237.000859932811</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>3067.242856183548</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>2890.535802145304</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>2724.944527171132</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>4932.38282354235</v>
+        <v>2613.163784754629</v>
       </c>
       <c r="T31" t="n">
-        <v>4686.503377120805</v>
+        <v>2367.284338333084</v>
       </c>
       <c r="U31" t="n">
-        <v>4408.070376373911</v>
+        <v>2088.851337586189</v>
       </c>
       <c r="V31" t="n">
-        <v>4121.114868244342</v>
+        <v>1801.895829456619</v>
       </c>
       <c r="W31" t="n">
-        <v>3849.088463830633</v>
+        <v>1529.869425042911</v>
       </c>
       <c r="X31" t="n">
-        <v>3849.088463830633</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y31" t="n">
-        <v>3621.668793144742</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3205.876241053795</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="C34" t="n">
-        <v>3033.31452953702</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D34" t="n">
-        <v>2867.436536738543</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E34" t="n">
-        <v>2697.67853298928</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F34" t="n">
-        <v>2520.971478951036</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4953.800644836978</v>
+        <v>2579.974639110826</v>
       </c>
       <c r="T34" t="n">
-        <v>4707.921198415434</v>
+        <v>2334.095192689281</v>
       </c>
       <c r="U34" t="n">
-        <v>4429.488197668539</v>
+        <v>2055.662191942386</v>
       </c>
       <c r="V34" t="n">
-        <v>4142.53268953897</v>
+        <v>1768.706683812817</v>
       </c>
       <c r="W34" t="n">
-        <v>3870.506285125261</v>
+        <v>1496.680279399108</v>
       </c>
       <c r="X34" t="n">
-        <v>3625.114530458674</v>
+        <v>1251.288524732521</v>
       </c>
       <c r="Y34" t="n">
-        <v>3397.694859772782</v>
+        <v>1023.868854046629</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,22 +6940,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4115.578073952528</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
         <v>4943.887948785924</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>875.8255515988633</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>703.2638400820882</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>537.3858472836109</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="E37" t="n">
-        <v>367.6278435343481</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F37" t="n">
-        <v>190.9207894961043</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1295.063841003742</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1067.64417031785</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7172,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3486.780615022739</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C40" t="n">
-        <v>3314.218903505964</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D40" t="n">
-        <v>3148.340910707486</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E40" t="n">
-        <v>2978.582906958224</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F40" t="n">
-        <v>2801.87585291998</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G40" t="n">
-        <v>2636.284577945808</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H40" t="n">
         <v>2496.382403636182</v>
@@ -7357,25 +7359,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T40" t="n">
-        <v>4867.162567117437</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U40" t="n">
-        <v>4710.392571637482</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V40" t="n">
-        <v>4423.437063507913</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W40" t="n">
-        <v>4151.410659094205</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X40" t="n">
-        <v>3906.018904427618</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y40" t="n">
-        <v>3678.599233741726</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1211.418991062705</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>1207.315518018919</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>1207.315518018919</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>773.5407731772136</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>345.6733435864214</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6733435864214</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677763</v>
+        <v>424.1063803693477</v>
       </c>
       <c r="K41" t="n">
-        <v>56.12639965677763</v>
+        <v>1258.456672327526</v>
       </c>
       <c r="L41" t="n">
-        <v>750.6905954094008</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M41" t="n">
-        <v>1445.254791162024</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N41" t="n">
-        <v>1445.254791162024</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O41" t="n">
-        <v>2139.818986914647</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>2259.821196880287</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V41" t="n">
-        <v>2443.703032772708</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W41" t="n">
-        <v>2038.847578183741</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X41" t="n">
-        <v>1619.705114763052</v>
+        <v>2946.29208781191</v>
       </c>
       <c r="Y41" t="n">
-        <v>1211.418991062705</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>82.19007281723522</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>82.19007281723522</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>213.0649915360004</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>907.6291872886236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1180.058584322639</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C43" t="n">
-        <v>1007.496872805864</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D43" t="n">
-        <v>841.6188800073862</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E43" t="n">
-        <v>671.8608762581234</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F43" t="n">
-        <v>495.1538222198796</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="G43" t="n">
-        <v>329.5625472457073</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="H43" t="n">
-        <v>189.6603729360818</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
-        <v>189.6603729360818</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>276.2400581007717</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>550.9985126719073</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>969.2083944398684</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1428.692261620781</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1870.951064778426</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2290.620314004207</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2638.127207974549</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2806.319982838882</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2806.319982838882</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2806.319982838882</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T43" t="n">
-        <v>2560.440536417337</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U43" t="n">
-        <v>2282.007535670442</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V43" t="n">
-        <v>2116.715032807814</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W43" t="n">
-        <v>1844.688628394105</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X43" t="n">
-        <v>1599.296873727518</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y43" t="n">
-        <v>1371.877203041626</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1791.820831731407</v>
+        <v>2363.585302738474</v>
       </c>
       <c r="C44" t="n">
-        <v>1353.67835891483</v>
+        <v>1925.442829921898</v>
       </c>
       <c r="D44" t="n">
-        <v>917.7685740892747</v>
+        <v>1489.533045096342</v>
       </c>
       <c r="E44" t="n">
-        <v>483.9938292475699</v>
+        <v>1055.758300254637</v>
       </c>
       <c r="F44" t="n">
-        <v>56.12639965677763</v>
+        <v>627.8908706638449</v>
       </c>
       <c r="G44" t="n">
-        <v>56.12639965677763</v>
+        <v>226.4930392871088</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677763</v>
+        <v>424.1063803693477</v>
       </c>
       <c r="K44" t="n">
-        <v>56.12639965677763</v>
+        <v>1258.456672327526</v>
       </c>
       <c r="L44" t="n">
-        <v>750.6905954094008</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M44" t="n">
-        <v>1445.254791162024</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N44" t="n">
-        <v>2139.818986914647</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O44" t="n">
-        <v>2806.319982838882</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>2806.319982838882</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U44" t="n">
-        <v>2547.097680155898</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="V44" t="n">
-        <v>2547.097680155898</v>
+        <v>4022.168914933384</v>
       </c>
       <c r="W44" t="n">
-        <v>2547.097680155898</v>
+        <v>3617.313460344418</v>
       </c>
       <c r="X44" t="n">
-        <v>2547.097680155898</v>
+        <v>3198.170996923729</v>
       </c>
       <c r="Y44" t="n">
-        <v>2218.120402216315</v>
+        <v>2789.884873223382</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351366</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188008</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334561</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661515</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277676</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.81587354386</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360073</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.14389452053</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486743</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744542</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838882</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287265</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617866</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617835</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679834</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413028</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651908</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.555867431129</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1268.718533547963</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C46" t="n">
-        <v>1096.156822031188</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>930.2788292327109</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E46" t="n">
-        <v>760.5208254834481</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F46" t="n">
-        <v>583.8137714452043</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G46" t="n">
-        <v>418.2224964710319</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>278.3203221614065</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
-        <v>189.6603729360818</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>276.2400581007717</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>550.9985126719073</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>969.2083944398684</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1428.692261620781</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1870.951064778426</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2290.620314004207</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2638.127207974549</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2806.319982838882</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2806.319982838882</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2806.319982838882</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2770.763490909603</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2492.330490162708</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="V46" t="n">
-        <v>2205.374982033139</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W46" t="n">
-        <v>1933.34857761943</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X46" t="n">
-        <v>1687.956822952842</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y46" t="n">
-        <v>1460.537152266951</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
   </sheetData>
@@ -7991,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8055,10 +8057,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>321.6407242930886</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8155,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078567</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O5" t="n">
-        <v>640.5448952297625</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,22 +8291,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L8" t="n">
-        <v>200.8936957823703</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>540.0049805212334</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>39.34908037598484</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N12" t="n">
-        <v>701.5799957097205</v>
+        <v>507.9139216242374</v>
       </c>
       <c r="O12" t="n">
-        <v>276.880171690467</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621152</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>383.1431497629746</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -9012,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>104.4225274019169</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9410,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="O24" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,25 +10588,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>222.4482437666397</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>333.6730111621152</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>121.2143535006462</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11136,19 +11138,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>132.1968875947123</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>333.6730111621152</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>673.2333292163985</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>420.6688392635767</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>42.41901400958</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>161.9268490649752</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>101.7177427369748</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>14.08936903582827</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>107.2592358276471</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>18.31929241554607</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>144.1344859240855</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>52.94985625022238</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>20.09260206285794</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>44.07191583437722</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>63.43016517136715</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,13 +25599,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>120.4463752142707</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>429.6986097750622</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>7.269959635453517</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>26.99333424003447</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>120.4463752142719</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>154.8431424426433</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>78.51575730315545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>419342.1265721038</v>
+        <v>594139.7217050672</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>419342.1265721038</v>
+        <v>594139.7217050672</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>633566.2688462039</v>
+        <v>633566.2688462038</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>633566.268846204</v>
+        <v>633566.2688462039</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>633566.2688462039</v>
+        <v>633566.2688462038</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>419342.1265721038</v>
+        <v>594139.7217050672</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>419342.1265721038</v>
+        <v>594139.7217050674</v>
       </c>
     </row>
   </sheetData>
@@ -26317,13 +26319,13 @@
         <v>361899.4409260257</v>
       </c>
       <c r="D2" t="n">
-        <v>361899.4409260256</v>
+        <v>361899.4409260257</v>
       </c>
       <c r="E2" t="n">
-        <v>235382.1117895401</v>
+        <v>333498.2429172707</v>
       </c>
       <c r="F2" t="n">
-        <v>235382.1117895401</v>
+        <v>333498.2429172707</v>
       </c>
       <c r="G2" t="n">
         <v>355628.8692927129</v>
@@ -26350,10 +26352,10 @@
         <v>355628.8692927128</v>
       </c>
       <c r="O2" t="n">
-        <v>235382.1117895401</v>
+        <v>333498.2429172707</v>
       </c>
       <c r="P2" t="n">
-        <v>235382.11178954</v>
+        <v>333498.2429172707</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045619</v>
+        <v>150665.7535717478</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340786</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,19 +26426,19 @@
         <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>45008.0107341682</v>
+        <v>63769.04507708549</v>
       </c>
       <c r="F4" t="n">
-        <v>45008.0107341682</v>
+        <v>63769.04507708549</v>
       </c>
       <c r="G4" t="n">
         <v>68000.69828933282</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933281</v>
@@ -26445,19 +26447,19 @@
         <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="O4" t="n">
-        <v>45008.0107341682</v>
+        <v>63769.04507708547</v>
       </c>
       <c r="P4" t="n">
-        <v>45008.0107341682</v>
+        <v>63769.04507708547</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-92649.42347245057</v>
+        <v>-92649.42347245058</v>
       </c>
       <c r="C6" t="n">
         <v>131050.2751115942</v>
       </c>
       <c r="D6" t="n">
-        <v>131050.2751115941</v>
+        <v>131050.2751115942</v>
       </c>
       <c r="E6" t="n">
-        <v>137547.0407157647</v>
+        <v>47798.1687861086</v>
       </c>
       <c r="F6" t="n">
-        <v>147718.0373162209</v>
+        <v>198463.9223578565</v>
       </c>
       <c r="G6" t="n">
-        <v>51850.45545147831</v>
+        <v>180820.1232249796</v>
       </c>
       <c r="H6" t="n">
         <v>209909.9323975875</v>
@@ -26543,7 +26545,7 @@
         <v>209909.9323975875</v>
       </c>
       <c r="J6" t="n">
-        <v>35258.58367988131</v>
+        <v>35258.5836798813</v>
       </c>
       <c r="K6" t="n">
         <v>209909.9323975875</v>
@@ -26552,16 +26554,16 @@
         <v>209909.9323975875</v>
       </c>
       <c r="M6" t="n">
-        <v>201420.8506942466</v>
+        <v>84158.84406189679</v>
       </c>
       <c r="N6" t="n">
         <v>209909.9323975875</v>
       </c>
       <c r="O6" t="n">
-        <v>147718.0373162209</v>
+        <v>198463.9223578565</v>
       </c>
       <c r="P6" t="n">
-        <v>147718.0373162208</v>
+        <v>198463.9223578564</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>256.0811030342884</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27396,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>86.14502017843068</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,10 +27590,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>135.0797604404447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -27676,13 +27678,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>256.4937245134201</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>256.49372451342</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>84.63380825304888</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>86.14502017843057</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27862,16 +27864,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>266.0749398648397</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047205</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>321.6407242930886</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34863,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078567</v>
+        <v>145.5272350047206</v>
       </c>
       <c r="O5" t="n">
-        <v>640.5448952297625</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>345.0097498941943</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35033,10 +35035,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L8" t="n">
-        <v>200.8936957823703</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>540.0049805212334</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>39.34908037598484</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N12" t="n">
-        <v>701.5799957097205</v>
+        <v>507.9139216242374</v>
       </c>
       <c r="O12" t="n">
-        <v>276.880171690467</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621152</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>383.1431497629746</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35732,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>104.4225274019169</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35887,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="O24" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36847,7 +36849,7 @@
         <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>-6.535077739020733e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37308,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>222.4482437666397</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>333.6730111621152</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>121.2143535006462</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37853,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>132.1968875947123</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>333.6730111621152</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097204</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>673.2333292163985</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1056268.100328333</v>
+        <v>1055662.012699437</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797168</v>
+        <v>606553.2040797148</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7170182.503358608</v>
+        <v>7170182.50335861</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>161.0265270205335</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -715,16 +715,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>272.845760387081</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>27.97358346682135</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -870,10 +870,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>131.996999652747</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>248.2979378436725</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>158.4573142730623</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1065,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>90.30617524481245</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>130.6556207749491</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>335.8915546016281</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>94.13536222288077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1302,13 +1302,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>90.30617524481291</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1387,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>175.4475408461118</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>203.7350166437391</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.97358346682203</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>62.61079093391906</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>344.9014115296835</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>130.5953288477701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>50.38971918733615</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1897,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>50.30825486907106</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2256,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>82.14201637551359</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.55329631630661</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2958,7 +2958,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>77.84041448886909</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2970,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>104.6990987647609</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>22.28534392847676</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>137.5563529521254</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3429,16 +3429,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>120.1472970361153</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3483,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>82.15263531037753</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149792</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>131.9969996527506</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>145.8387674910519</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3805,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6810791510289</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3909,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>111.5098183264948</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3957,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>35.51678257079473</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3988,16 +3988,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>312.384821650651</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>131.3957105685726</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4185,16 +4185,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>172.6623007436913</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>981.0148405224497</v>
+        <v>707.7581132933927</v>
       </c>
       <c r="C2" t="n">
-        <v>542.8723677058731</v>
+        <v>269.6156404768161</v>
       </c>
       <c r="D2" t="n">
         <v>106.9625828803175</v>
       </c>
       <c r="E2" t="n">
-        <v>77.22824207901678</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
@@ -4336,22 +4336,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4360,22 +4360,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488304</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.119422805321</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V2" t="n">
-        <v>1831.517644636552</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="W2" t="n">
-        <v>1830.70259408799</v>
+        <v>1961.486270899337</v>
       </c>
       <c r="X2" t="n">
-        <v>1815.600534707704</v>
+        <v>1542.343807478647</v>
       </c>
       <c r="Y2" t="n">
-        <v>1407.314411007358</v>
+        <v>1134.057683778301</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
         <v>79.46488968908616</v>
@@ -4485,7 +4485,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2489.401636434797</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>1160.715522056491</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2078.642592532902</v>
+        <v>389.6379614873604</v>
       </c>
       <c r="C5" t="n">
-        <v>1640.500119716325</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D5" t="n">
-        <v>1204.590334890769</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>770.8155900490646</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362199</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4600,19 +4600,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X5" t="n">
-        <v>2509.187882677752</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y5" t="n">
-        <v>2504.942163017809</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="6">
@@ -4640,7 +4640,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516122</v>
+        <v>790.1610481280939</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348371</v>
+        <v>617.5993366113188</v>
       </c>
       <c r="D7" t="n">
-        <v>403.0375283363599</v>
+        <v>451.7213438128414</v>
       </c>
       <c r="E7" t="n">
-        <v>233.2795245870971</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F7" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434796</v>
+        <v>2538.085451911278</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013251</v>
+        <v>2292.206005489733</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2013.773004742838</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136787</v>
+        <v>1726.817496613269</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1454.79109219956</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056491</v>
+        <v>1209.399337532973</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705994</v>
+        <v>981.979666847081</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>172.9340324416416</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C8" t="n">
-        <v>138.8319636654689</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>106.9625828803175</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901678</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862857</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1375.081325612186</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>2035.921380153964</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488304</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.119422805321</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1744.502472739147</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.647018150181</v>
+        <v>2232.100425464725</v>
       </c>
       <c r="X8" t="n">
-        <v>920.5045547294914</v>
+        <v>2216.99836608444</v>
       </c>
       <c r="Y8" t="n">
-        <v>512.2184310291448</v>
+        <v>2212.752646424497</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870976</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>142.0611657539532</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2230.862362770219</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>1792.719889953642</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1356.810105128087</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>923.035360286382</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>495.1679306955898</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>93.77009931885365</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>93.77009931885365</v>
+        <v>424.1063803693496</v>
       </c>
       <c r="K11" t="n">
-        <v>93.77009931885365</v>
+        <v>1258.456672327527</v>
       </c>
       <c r="L11" t="n">
-        <v>1168.830065571713</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M11" t="n">
-        <v>1207.785655143938</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N11" t="n">
-        <v>2333.516638580385</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O11" t="n">
-        <v>3313.696305150691</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P11" t="n">
-        <v>4142.006179984088</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4511.285227714287</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4252.062925031303</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="V11" t="n">
-        <v>3889.44597496513</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W11" t="n">
-        <v>3484.590520376163</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X11" t="n">
-        <v>3065.448056955473</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
-        <v>2657.161933255127</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,46 +5114,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>1254.175078389668</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1757.009860797662</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1757.009860797662</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1172.828259930735</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.26654841396</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D13" t="n">
-        <v>834.3885556154826</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E13" t="n">
-        <v>664.6305518662199</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F13" t="n">
-        <v>487.9234978279761</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G13" t="n">
-        <v>322.3322228538038</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H13" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2529.770519225022</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T13" t="n">
-        <v>2283.891072803477</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U13" t="n">
-        <v>2005.458072056582</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V13" t="n">
-        <v>1718.502563927013</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W13" t="n">
-        <v>1446.476159513304</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X13" t="n">
-        <v>1201.084404846717</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y13" t="n">
-        <v>1201.084404846717</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2118.594685950267</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>1680.45221313369</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>1244.542428308135</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>810.7676834664296</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>382.9002538756374</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>382.9002538756374</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>424.1063803693477</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>1258.456672327526</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>2333.516638580385</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>2333.516638580385</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N14" t="n">
-        <v>2333.516638580385</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>3313.696305150691</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>4142.006179984088</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126519</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.785864999558</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316574</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V14" t="n">
-        <v>3777.178298145177</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W14" t="n">
-        <v>3372.322843556211</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X14" t="n">
-        <v>2953.180380135521</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2544.894256435175</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,7 +5351,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
         <v>119.8337724793113</v>
@@ -5381,16 +5381,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>911.6065991886352</v>
+        <v>995.0825554554531</v>
       </c>
       <c r="C16" t="n">
-        <v>911.6065991886352</v>
+        <v>822.520843938678</v>
       </c>
       <c r="D16" t="n">
-        <v>745.7286063901579</v>
+        <v>656.6428511402007</v>
       </c>
       <c r="E16" t="n">
-        <v>575.9706026408952</v>
+        <v>524.7283775565945</v>
       </c>
       <c r="F16" t="n">
-        <v>399.2635486026514</v>
+        <v>348.0213235183507</v>
       </c>
       <c r="G16" t="n">
-        <v>233.6722736284791</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5463,25 +5463,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2659.531002971819</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2413.651556550274</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2135.218555803379</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V16" t="n">
-        <v>1848.26304767381</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W16" t="n">
-        <v>1576.236643260102</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X16" t="n">
-        <v>1330.844888593514</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y16" t="n">
-        <v>1103.425217907622</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
@@ -5521,10 +5521,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5545,22 +5545,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.9960463903949</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C19" t="n">
-        <v>798.4343348736198</v>
+        <v>831.0115848906036</v>
       </c>
       <c r="D19" t="n">
-        <v>632.5563420751425</v>
+        <v>665.1335920921263</v>
       </c>
       <c r="E19" t="n">
-        <v>462.7983383258798</v>
+        <v>495.3755883428635</v>
       </c>
       <c r="F19" t="n">
-        <v>286.091284287636</v>
+        <v>318.6685343046197</v>
       </c>
       <c r="G19" t="n">
-        <v>120.5000093134636</v>
+        <v>153.0772593304474</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>153.0772593304474</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5761,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3346.878440713113</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C22" t="n">
-        <v>3174.316729196338</v>
+        <v>863.1668995435758</v>
       </c>
       <c r="D22" t="n">
-        <v>3008.438736397861</v>
+        <v>697.2889067450985</v>
       </c>
       <c r="E22" t="n">
-        <v>2838.680732648598</v>
+        <v>527.5309029958357</v>
       </c>
       <c r="F22" t="n">
-        <v>2661.973678610354</v>
+        <v>350.823848957592</v>
       </c>
       <c r="G22" t="n">
-        <v>2496.382403636182</v>
+        <v>185.2325739834196</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>5094.802844496297</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>4848.923398074752</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>4570.490397327858</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>4283.534889198289</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>4011.50848478458</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>3766.116730117992</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y22" t="n">
-        <v>3538.697059432101</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6071,13 +6071,13 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
         <v>1107.588885023173</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3346.878440713113</v>
+        <v>1039.174348374283</v>
       </c>
       <c r="C25" t="n">
-        <v>3174.316729196338</v>
+        <v>866.6126368575082</v>
       </c>
       <c r="D25" t="n">
-        <v>3008.438736397861</v>
+        <v>700.7346440590309</v>
       </c>
       <c r="E25" t="n">
-        <v>2838.680732648598</v>
+        <v>530.9766403097681</v>
       </c>
       <c r="F25" t="n">
-        <v>2661.973678610354</v>
+        <v>354.2695862715243</v>
       </c>
       <c r="G25" t="n">
-        <v>2496.382403636182</v>
+        <v>188.678311297352</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>188.678311297352</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5094.802844496297</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>4848.923398074752</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>4570.490397327858</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>4283.534889198289</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>4011.50848478458</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>3766.116730117992</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>3538.697059432101</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6472,16 +6472,16 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>1090.187678435286</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>917.6259669185112</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>751.7479741200339</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2613.163784754629</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2367.284338333084</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2088.851337586189</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V31" t="n">
-        <v>1801.895829456619</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W31" t="n">
-        <v>1529.869425042911</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X31" t="n">
-        <v>1284.477670376323</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>832.0502353276421</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C34" t="n">
-        <v>832.0502353276421</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D34" t="n">
-        <v>666.1722425291648</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E34" t="n">
-        <v>496.4142387799021</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>124.7712886833824</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2579.974639110826</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T34" t="n">
-        <v>2334.095192689281</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U34" t="n">
-        <v>2055.662191942386</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V34" t="n">
-        <v>1768.706683812817</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W34" t="n">
-        <v>1496.680279399108</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.288524732521</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y34" t="n">
-        <v>1023.868854046629</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>843.1660143917137</v>
       </c>
       <c r="D37" t="n">
-        <v>496.4142387799021</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E37" t="n">
-        <v>496.4142387799021</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G37" t="n">
         <v>330.8229638057298</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1952.384174393664</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="38">
@@ -7186,40 +7186,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3346.878440713113</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>3174.316729196338</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>3008.438736397861</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>2838.680732648598</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>2661.973678610354</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>5094.802844496297</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T40" t="n">
-        <v>4848.923398074752</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="U40" t="n">
-        <v>4570.490397327858</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V40" t="n">
-        <v>4283.534889198289</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>4011.50848478458</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>3766.116730117992</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>3538.697059432101</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7405,55 +7405,55 @@
         <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>424.1063803693477</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>1258.456672327526</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2333.516638580385</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M41" t="n">
-        <v>2333.516638580385</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N41" t="n">
-        <v>2333.516638580385</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O41" t="n">
-        <v>3313.696305150691</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>4142.006179984088</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.785864999558</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316574</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.946612250401</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661434</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X41" t="n">
-        <v>2946.29208781191</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y41" t="n">
         <v>2946.29208781191</v>
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,7 +7484,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
         <v>119.8337724793113</v>
@@ -7514,16 +7514,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.2639367364659</v>
+        <v>1032.92608562111</v>
       </c>
       <c r="C43" t="n">
-        <v>630.7022252196908</v>
+        <v>860.3643741043346</v>
       </c>
       <c r="D43" t="n">
-        <v>464.8242324212135</v>
+        <v>694.4863813058573</v>
       </c>
       <c r="E43" t="n">
-        <v>295.0662286719508</v>
+        <v>524.7283775565945</v>
       </c>
       <c r="F43" t="n">
-        <v>295.0662286719508</v>
+        <v>348.0213235183507</v>
       </c>
       <c r="G43" t="n">
-        <v>295.0662286719508</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="H43" t="n">
-        <v>182.4300485441783</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2551.18834051965</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2305.308894098105</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2026.87589335121</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>1739.920385221641</v>
+        <v>1969.582534106285</v>
       </c>
       <c r="W43" t="n">
-        <v>1467.893980807932</v>
+        <v>1697.556129692576</v>
       </c>
       <c r="X43" t="n">
-        <v>1222.502226141345</v>
+        <v>1452.164375025989</v>
       </c>
       <c r="Y43" t="n">
-        <v>995.0825554554531</v>
+        <v>1224.744704340097</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2363.585302738474</v>
+        <v>2408.082100998617</v>
       </c>
       <c r="C44" t="n">
-        <v>1925.442829921898</v>
+        <v>1969.93962818204</v>
       </c>
       <c r="D44" t="n">
-        <v>1489.533045096342</v>
+        <v>1534.029843356485</v>
       </c>
       <c r="E44" t="n">
-        <v>1055.758300254637</v>
+        <v>1100.25509851478</v>
       </c>
       <c r="F44" t="n">
-        <v>627.8908706638449</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>226.4930392871088</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>424.1063803693477</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>1258.456672327526</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>2333.516638580385</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M44" t="n">
-        <v>2333.516638580385</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N44" t="n">
-        <v>2333.516638580385</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
-        <v>3313.696305150691</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>4142.006179984088</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.785864999558</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U44" t="n">
-        <v>4384.785864999558</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V44" t="n">
-        <v>4022.168914933384</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W44" t="n">
-        <v>3617.313460344418</v>
+        <v>3661.810258604561</v>
       </c>
       <c r="X44" t="n">
-        <v>3198.170996923729</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y44" t="n">
-        <v>2789.884873223382</v>
+        <v>2834.381671483525</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,7 +7721,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7788,22 +7788,22 @@
         <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>834.3885556154826</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E46" t="n">
-        <v>664.6305518662199</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F46" t="n">
-        <v>487.9234978279761</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G46" t="n">
         <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>182.4300485441783</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7833,19 +7833,19 @@
         <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2529.770519225022</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T46" t="n">
-        <v>2283.891072803477</v>
+        <v>2674.873217292374</v>
       </c>
       <c r="U46" t="n">
-        <v>2283.891072803477</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V46" t="n">
         <v>2109.48470841591</v>
       </c>
       <c r="W46" t="n">
-        <v>1837.458304002201</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X46" t="n">
         <v>1592.066549335614</v>
@@ -7984,7 +7984,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047208</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8157,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,19 +8227,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8464,19 +8464,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>20.13097499434639</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>39.34908037598484</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>507.9139216242374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>333.6730111621152</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9169,13 +9169,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10120,19 +10120,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>333.6730111621152</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>333.6730111621152</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>42.41901400958</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>52.89506301241414</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>161.9268490649752</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>155.2557639217727</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>14.08936903582827</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>37.46509486399998</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>107.2592358276471</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>37.46509486400036</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>56.36113619101563</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>2.220053416764799</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>90.22000922290103</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>52.94985625022238</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>65.48800580459465</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>20.09260206285794</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>44.07191583437722</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>201.9333177378963</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>143.6516710866751</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>110.7913121651014</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>7.269959635453517</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>26.99333424003447</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>248.5691704774791</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>111.2039336442333</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>154.8431424426433</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>594139.7217050672</v>
+        <v>594139.7217050674</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>594139.7217050672</v>
+        <v>594139.7217050677</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>633566.2688462039</v>
+        <v>633566.268846204</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>633566.2688462039</v>
+        <v>633566.2688462038</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>633566.2688462038</v>
+        <v>633566.2688462039</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>633566.2688462038</v>
+        <v>633566.268846204</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>594139.7217050672</v>
+        <v>594139.7217050676</v>
       </c>
     </row>
     <row r="16">
@@ -26322,16 +26322,16 @@
         <v>361899.4409260257</v>
       </c>
       <c r="E2" t="n">
-        <v>333498.2429172707</v>
+        <v>333498.2429172709</v>
       </c>
       <c r="F2" t="n">
-        <v>333498.2429172707</v>
+        <v>333498.2429172708</v>
       </c>
       <c r="G2" t="n">
-        <v>355628.8692927129</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="H2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927127</v>
       </c>
       <c r="I2" t="n">
         <v>355628.8692927128</v>
@@ -26352,7 +26352,7 @@
         <v>355628.8692927128</v>
       </c>
       <c r="O2" t="n">
-        <v>333498.2429172707</v>
+        <v>333498.2429172708</v>
       </c>
       <c r="P2" t="n">
         <v>333498.2429172707</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717478</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260791</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356907</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>63769.04507708549</v>
+        <v>63769.0450770855</v>
       </c>
       <c r="F4" t="n">
-        <v>63769.04507708549</v>
+        <v>63769.0450770855</v>
       </c>
       <c r="G4" t="n">
         <v>68000.69828933282</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933281</v>
@@ -26444,22 +26444,22 @@
         <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="O4" t="n">
-        <v>63769.04507708547</v>
+        <v>63769.04507708549</v>
       </c>
       <c r="P4" t="n">
-        <v>63769.04507708547</v>
+        <v>63769.04507708549</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-92649.42347245058</v>
+        <v>-92649.42347245068</v>
       </c>
       <c r="C6" t="n">
-        <v>131050.2751115942</v>
+        <v>131050.2751115943</v>
       </c>
       <c r="D6" t="n">
         <v>131050.2751115942</v>
       </c>
       <c r="E6" t="n">
-        <v>47798.1687861086</v>
+        <v>47692.97916385395</v>
       </c>
       <c r="F6" t="n">
-        <v>198463.9223578565</v>
+        <v>198358.7327356019</v>
       </c>
       <c r="G6" t="n">
-        <v>180820.1232249796</v>
+        <v>180796.8988855971</v>
       </c>
       <c r="H6" t="n">
-        <v>209909.9323975875</v>
+        <v>209886.7080582048</v>
       </c>
       <c r="I6" t="n">
-        <v>209909.9323975875</v>
+        <v>209886.7080582048</v>
       </c>
       <c r="J6" t="n">
-        <v>35258.5836798813</v>
+        <v>35235.35934049867</v>
       </c>
       <c r="K6" t="n">
-        <v>209909.9323975875</v>
+        <v>209886.7080582049</v>
       </c>
       <c r="L6" t="n">
-        <v>209909.9323975875</v>
+        <v>209886.7080582048</v>
       </c>
       <c r="M6" t="n">
-        <v>84158.84406189679</v>
+        <v>84135.61972251403</v>
       </c>
       <c r="N6" t="n">
-        <v>209909.9323975875</v>
+        <v>209886.7080582048</v>
       </c>
       <c r="O6" t="n">
-        <v>198463.9223578565</v>
+        <v>198358.7327356019</v>
       </c>
       <c r="P6" t="n">
-        <v>198463.9223578564</v>
+        <v>198358.7327356018</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1172.126241485671</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>270.5241599567664</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27435,16 +27435,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>86.14502017843068</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>161.9268490649759</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>143.6516710866787</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>185.4631102447384</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>256.49372451342</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>84.63380825304888</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>26.99333424003424</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.14502017843057</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>306.6715378201962</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>84.63380825304843</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30431,7 +30431,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047208</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
@@ -34865,13 +34865,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047206</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
@@ -35108,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,19 +35184,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>640.544895229762</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>20.13097499434639</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>39.34908037598484</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>507.9139216242374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>333.6730111621152</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35661,7 +35661,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35889,13 +35889,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>661.3192390158824</v>
@@ -36694,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36840,19 +36840,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>168.8387779969835</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>333.6730111621152</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>333.6730111621152</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
